--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>fucking</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
@@ -70,6 +70,9 @@
     <t>hate</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
@@ -79,21 +82,15 @@
     <t>scary</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -115,46 +112,46 @@
     <t>better</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
+    <t>important</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>true</t>
+    <t>highly</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>please</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
@@ -532,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9393939393939394</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9</v>
@@ -693,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <v>0.88</v>
@@ -743,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.7543859649122807</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7">
         <v>0.7241379310344828</v>
@@ -843,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.8125</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,16 +911,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9">
         <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,16 +961,16 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L10">
         <v>35</v>
       </c>
-      <c r="K10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L10">
-        <v>18</v>
-      </c>
       <c r="M10">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,16 +1011,16 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.4848484848484849</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,49 +1090,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6382978723404256</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>0.375</v>
+      </c>
+      <c r="L13">
+        <v>18</v>
+      </c>
+      <c r="M13">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>30</v>
-      </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>17</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="L13">
-        <v>20</v>
-      </c>
-      <c r="M13">
-        <v>20</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6285714285714286</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1161,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="L14">
         <v>13</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="L14">
-        <v>17</v>
-      </c>
       <c r="M14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1193,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6086956521739131</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1211,31 +1208,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="L15">
+        <v>19</v>
+      </c>
+      <c r="M15">
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>40</v>
-      </c>
-      <c r="K15">
-        <v>0.2668488160291439</v>
-      </c>
-      <c r="L15">
-        <v>293</v>
-      </c>
-      <c r="M15">
-        <v>293</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1243,13 +1240,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5384615384615384</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1261,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.1971830985915493</v>
+        <v>0.2540983606557377</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1285,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>57</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1293,13 +1290,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5217391304347826</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1311,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.1789473684210526</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1335,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1343,7 +1340,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -1361,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.1411764705882353</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1385,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1393,13 +1390,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4102564102564102</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1411,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.05555555555555555</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1435,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>510</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1443,87 +1440,63 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2051282051282051</v>
+        <v>0.05067567567567568</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>62</v>
+        <v>281</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.05</v>
+      </c>
+      <c r="L20">
+        <v>27</v>
+      </c>
+      <c r="M20">
+        <v>27</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K20">
-        <v>0.03765060240963856</v>
-      </c>
-      <c r="L20">
-        <v>25</v>
-      </c>
-      <c r="M20">
-        <v>25</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>0.16</v>
-      </c>
-      <c r="F21">
-        <v>0.84</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>280</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K21">
-        <v>0.03519061583577713</v>
+        <v>0.03313253012048193</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1535,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>329</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.03409090909090909</v>
+        <v>0.0275974025974026</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1561,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.01785714285714286</v>
+        <v>0.02246543778801843</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1587,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1705</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.01664532650448143</v>
+        <v>0.01920614596670935</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1613,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
